--- a/data/input/absenteeism_data_23.xlsx
+++ b/data/input/absenteeism_data_23.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24756</v>
+        <v>61919</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexandre da Paz</t>
+          <t>Alícia Rocha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,143 +494,143 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45088</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>3344.55</v>
+        <v>8859.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>59321</v>
+        <v>85614</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Beatriz da Cunha</t>
+          <t>Maria Clara Gonçalves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>5492.92</v>
+        <v>11113.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11730</v>
+        <v>58994</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Sophia Costa</t>
+          <t>Diogo das Neves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45080</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>9079.52</v>
+        <v>12161.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80512</v>
+        <v>6038</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Sophia Martins</t>
+          <t>Bruna Moura</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45084</v>
+        <v>45105</v>
       </c>
       <c r="G5" t="n">
-        <v>7057.88</v>
+        <v>8812.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>60041</v>
+        <v>94586</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Raul Ribeiro</t>
+          <t>Maria Eduarda Gonçalves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="G6" t="n">
-        <v>3331.19</v>
+        <v>5416.99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>92089</v>
+        <v>26379</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Catarina Moraes</t>
+          <t>Raquel Nogueira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,22 +639,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45103</v>
+        <v>45105</v>
       </c>
       <c r="G7" t="n">
-        <v>4858.56</v>
+        <v>5454.48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>66154</v>
+        <v>58593</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srta. Bruna Azevedo</t>
+          <t>Luigi Costela</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,31 +664,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>8883.049999999999</v>
+        <v>8756.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>52491</v>
+        <v>32985</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Felipe Pinto</t>
+          <t>Maysa Cavalcanti</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,27 +697,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45093</v>
       </c>
       <c r="G9" t="n">
-        <v>5469.08</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>22720</v>
+        <v>15615</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Renan Fogaça</t>
+          <t>Davi Pires</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45100</v>
       </c>
       <c r="G10" t="n">
-        <v>12347.92</v>
+        <v>10970.53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64166</v>
+        <v>12645</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Augusto da Paz</t>
+          <t>Vitória Costela</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45098</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>7197.52</v>
+        <v>5219.13</v>
       </c>
     </row>
   </sheetData>
